--- a/troubleshooting/PPA3 Troubleshooting Log.xlsx
+++ b/troubleshooting/PPA3 Troubleshooting Log.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dconly\GitRepos\PPA3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dconly\GitRepos\PPA3\troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A892737-52D4-4229-8170-0AB3676EF50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9485BC-8267-4724-9AE3-74CC117723B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Log" sheetId="1" r:id="rId1"/>
+    <sheet name="Congestion Direction Issue" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Problem</t>
   </si>
@@ -105,6 +106,165 @@
       </rPr>
       <t>4/4/2022 - potentially helps to swap out DeleteFeatures() to TruncateTable()</t>
     </r>
+  </si>
+  <si>
+    <t>Project Line</t>
+  </si>
+  <si>
+    <t>I-5 by SMF</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>PPA2</t>
+  </si>
+  <si>
+    <t>GP task</t>
+  </si>
+  <si>
+    <t>Fwy congestion</t>
+  </si>
+  <si>
+    <t>NB direction correctly tagged, and speeds reasonable; SB is tagged as EB, though speed seems reasonable.</t>
+  </si>
+  <si>
+    <t>PPA3 GP, online</t>
+  </si>
+  <si>
+    <t>PPA3 GP Script in local</t>
+  </si>
+  <si>
+    <t>PPA3 GP as desktop tool</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locally stored line geometry: </t>
+  </si>
+  <si>
+    <t>NPMRDS script in GPT = NPMRDS script in desktop?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Chart maker script in GPT = Chart maker script in desktop?</t>
+  </si>
+  <si>
+    <t>Run report script in GPT = Run report script in desktop?</t>
+  </si>
+  <si>
+    <t>Outputs check</t>
+  </si>
+  <si>
+    <t>Script comparison</t>
+  </si>
+  <si>
+    <t>Correct/as expected</t>
+  </si>
+  <si>
+    <t>parameters script in GPT = parameters report script in desktop?</t>
+  </si>
+  <si>
+    <t>Scripts identical</t>
+  </si>
+  <si>
+    <t>Substantially same (JSON template path turned into ESRI variable, but same)</t>
+  </si>
+  <si>
+    <t>Substantially the same</t>
+  </si>
+  <si>
+    <t>Input check</t>
+  </si>
+  <si>
+    <t>Confirm that server version of NPRMDS file has same directions as desktop version</t>
+  </si>
+  <si>
+    <t>Test run file</t>
+  </si>
+  <si>
+    <t>C:\Users\dconly\Desktop\TempLocalPPA\CongestionRptTestingApr2022</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF_20220425_1023.json</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1137RestartTool.json</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1141.json</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1144.json</t>
+  </si>
+  <si>
+    <t>Wrong results ("EB" should've been SB)</t>
+  </si>
+  <si>
+    <t>Wrong results (EB/WB instead of NB/SB, and both directions had identical speed values</t>
+  </si>
+  <si>
+    <t>Correct/no issues</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1147.json</t>
+  </si>
+  <si>
+    <t>All TMC directions correct?</t>
+  </si>
+  <si>
+    <t>Confirmed directions are the same</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1156.json</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1158.json</t>
+  </si>
+  <si>
+    <t>Mildly squiggly line, but run on desktop</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1201_desktopsquigg.json</t>
+  </si>
+  <si>
+    <t>PPA_I5SMF_squigg042520221321.xlsx</t>
+  </si>
+  <si>
+    <t>Run with PPA2 tool; squiggly line</t>
+  </si>
+  <si>
+    <t>PPA_I5test042520221033.xlsx</t>
+  </si>
+  <si>
+    <t>Run with PPA2 tool</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMFP20220425_1343.json</t>
+  </si>
+  <si>
+    <t>Mildly squiggly line, run via WAB</t>
+  </si>
+  <si>
+    <t>CongestnRptI5SMF20220425_1345.json</t>
+  </si>
+  <si>
+    <t>Significantly squiggly line, run via WAB</t>
+  </si>
+  <si>
+    <t>Restarted GP service before running; run in map viewer</t>
+  </si>
+  <si>
+    <t>Made line squiggle a bit off course (but not significantly); run in map viewer</t>
+  </si>
+  <si>
+    <t>run in map viewer</t>
   </si>
 </sst>
 </file>
@@ -157,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -170,6 +330,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -186,6 +347,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161219</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25669E7A-115A-85FC-0F44-3EA927442B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="762000"/>
+          <a:ext cx="5647619" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,4 +750,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7A9908-0B8B-4378-BBD3-0AFA8558D8EB}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>